--- a/correlation/data/ewma_cor.xlsx
+++ b/correlation/data/ewma_cor.xlsx
@@ -450,28 +450,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.6827642956347022</v>
+        <v>-0.6771046479271272</v>
       </c>
       <c r="C2">
-        <v>0.5678614251630246</v>
+        <v>0.645562803891112</v>
       </c>
       <c r="D2">
-        <v>0.3445087844821131</v>
+        <v>-0.07871098333212111</v>
       </c>
       <c r="E2">
-        <v>0.2938418736383145</v>
+        <v>-0.1506755665118734</v>
       </c>
       <c r="F2">
-        <v>-0.302068375782063</v>
+        <v>-0.488593370398544</v>
       </c>
       <c r="G2">
-        <v>0.02294035515562016</v>
+        <v>-0.4280601712459055</v>
       </c>
       <c r="H2">
-        <v>0.9217133215678786</v>
+        <v>0.9668214770041927</v>
       </c>
       <c r="I2">
-        <v>0.3945592687020009</v>
+        <v>0.7804518482885908</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -479,28 +479,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.7023301610042766</v>
+        <v>-0.7082687695722908</v>
       </c>
       <c r="C3">
-        <v>0.6461603681821819</v>
+        <v>0.6964141929811101</v>
       </c>
       <c r="D3">
-        <v>0.08345915457450893</v>
+        <v>-0.2112312443194739</v>
       </c>
       <c r="E3">
-        <v>0.001896505582512103</v>
+        <v>-0.3133602232464183</v>
       </c>
       <c r="F3">
-        <v>-0.4301058545945667</v>
+        <v>-0.562333914013466</v>
       </c>
       <c r="G3">
-        <v>-0.1240981518443913</v>
+        <v>-0.4847682594270933</v>
       </c>
       <c r="H3">
-        <v>0.9617213555129397</v>
+        <v>0.9869421919885022</v>
       </c>
       <c r="I3">
-        <v>0.5326375782351482</v>
+        <v>0.8046999101276928</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -508,28 +508,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.8521355879264935</v>
+        <v>-0.8610752367520869</v>
       </c>
       <c r="C4">
-        <v>0.5742987913918504</v>
+        <v>0.6702778089248025</v>
       </c>
       <c r="D4">
-        <v>-0.1522494973015752</v>
+        <v>-0.321771097075608</v>
       </c>
       <c r="E4">
-        <v>0.01213813878069049</v>
+        <v>-0.2344849428495477</v>
       </c>
       <c r="F4">
-        <v>-0.7442462866335366</v>
+        <v>-0.7979467667013099</v>
       </c>
       <c r="G4">
-        <v>-0.38197908987908</v>
+        <v>-0.573312267637715</v>
       </c>
       <c r="H4">
-        <v>0.8166913966662113</v>
+        <v>0.8620150885572924</v>
       </c>
       <c r="I4">
-        <v>0.5798989367026657</v>
+        <v>0.7400099400787683</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -537,28 +537,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-0.284106512207156</v>
+        <v>-0.3537807552021243</v>
       </c>
       <c r="C5">
-        <v>-0.2603989500754936</v>
+        <v>-0.1256542626778632</v>
       </c>
       <c r="D5">
-        <v>-0.9002662334725273</v>
+        <v>-0.8987539392194978</v>
       </c>
       <c r="E5">
-        <v>-0.3778675338968285</v>
+        <v>-0.4029271671687493</v>
       </c>
       <c r="F5">
-        <v>-0.3995992586134968</v>
+        <v>-0.4493006347987714</v>
       </c>
       <c r="G5">
-        <v>-0.7750178378586634</v>
+        <v>-0.7574202051519227</v>
       </c>
       <c r="H5">
-        <v>0.0007850573162106777</v>
+        <v>0.1833024701882449</v>
       </c>
       <c r="I5">
-        <v>0.1071397014034014</v>
+        <v>0.2431230487161717</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,28 +566,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1624727039462629</v>
+        <v>-0.2768716098713497</v>
       </c>
       <c r="C6">
-        <v>-0.3697374096556175</v>
+        <v>-0.2247707890397209</v>
       </c>
       <c r="D6">
-        <v>-0.9897876040224435</v>
+        <v>-0.9859639093241898</v>
       </c>
       <c r="E6">
-        <v>-0.3497423210572432</v>
+        <v>-0.375275693053864</v>
       </c>
       <c r="F6">
-        <v>-0.4070541280383098</v>
+        <v>-0.4582621336660804</v>
       </c>
       <c r="G6">
-        <v>-0.7893595509055772</v>
+        <v>-0.7771994011764882</v>
       </c>
       <c r="H6">
-        <v>-0.1908328858578691</v>
+        <v>0.1057005647075392</v>
       </c>
       <c r="I6">
-        <v>0.01070639918381926</v>
+        <v>0.1968496344901255</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -595,28 +595,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.1569054434695007</v>
+        <v>-0.2608274936714516</v>
       </c>
       <c r="C7">
-        <v>-0.2027494782100623</v>
+        <v>-0.09128432324162976</v>
       </c>
       <c r="D7">
-        <v>-0.9534823816345468</v>
+        <v>-0.947922445983883</v>
       </c>
       <c r="E7">
-        <v>-0.5489281121491388</v>
+        <v>-0.5691303634775818</v>
       </c>
       <c r="F7">
-        <v>-0.4175512787884537</v>
+        <v>-0.4676331935322137</v>
       </c>
       <c r="G7">
-        <v>-0.7206124020049908</v>
+        <v>-0.7101515265119636</v>
       </c>
       <c r="H7">
-        <v>-0.1017102143654278</v>
+        <v>0.1477001020627862</v>
       </c>
       <c r="I7">
-        <v>0.02369262593938256</v>
+        <v>0.1888808059076209</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/ewma_cor.xlsx
+++ b/correlation/data/ewma_cor.xlsx
@@ -450,28 +450,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.6771046479271272</v>
+        <v>-0.6803283504631858</v>
       </c>
       <c r="C2">
-        <v>0.645562803891112</v>
+        <v>0.6791860276644395</v>
       </c>
       <c r="D2">
-        <v>-0.07871098333212111</v>
+        <v>-0.1900936030825373</v>
       </c>
       <c r="E2">
-        <v>-0.1506755665118734</v>
+        <v>-0.2113307447708551</v>
       </c>
       <c r="F2">
-        <v>-0.488593370398544</v>
+        <v>-0.52058764650398</v>
       </c>
       <c r="G2">
-        <v>-0.4280601712459055</v>
+        <v>-0.5403497500033141</v>
       </c>
       <c r="H2">
-        <v>0.9668214770041927</v>
+        <v>0.9698943479901335</v>
       </c>
       <c r="I2">
-        <v>0.7804518482885908</v>
+        <v>0.8207516641695951</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -479,28 +479,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.7082687695722908</v>
+        <v>-0.7126442929716179</v>
       </c>
       <c r="C3">
-        <v>0.6964141929811101</v>
+        <v>0.723321384156048</v>
       </c>
       <c r="D3">
-        <v>-0.2112312443194739</v>
+        <v>-0.2951504546482133</v>
       </c>
       <c r="E3">
-        <v>-0.3133602232464183</v>
+        <v>-0.3561072481235958</v>
       </c>
       <c r="F3">
-        <v>-0.562333914013466</v>
+        <v>-0.5875169986414045</v>
       </c>
       <c r="G3">
-        <v>-0.4847682594270933</v>
+        <v>-0.5684171697416494</v>
       </c>
       <c r="H3">
-        <v>0.9869421919885022</v>
+        <v>0.9892874913102085</v>
       </c>
       <c r="I3">
-        <v>0.8046999101276928</v>
+        <v>0.8254421734356495</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -508,28 +508,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.8610752367520869</v>
+        <v>-0.8657741835734499</v>
       </c>
       <c r="C4">
-        <v>0.6702778089248025</v>
+        <v>0.6939924537021366</v>
       </c>
       <c r="D4">
-        <v>-0.321771097075608</v>
+        <v>-0.3740556169766531</v>
       </c>
       <c r="E4">
-        <v>-0.2344849428495477</v>
+        <v>-0.2749798481819001</v>
       </c>
       <c r="F4">
-        <v>-0.7979467667013099</v>
+        <v>-0.8080388400186241</v>
       </c>
       <c r="G4">
-        <v>-0.573312267637715</v>
+        <v>-0.5975918837173734</v>
       </c>
       <c r="H4">
-        <v>0.8620150885572924</v>
+        <v>0.8673647051480593</v>
       </c>
       <c r="I4">
-        <v>0.7400099400787683</v>
+        <v>0.7398902256985178</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -537,28 +537,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-0.3537807552021243</v>
+        <v>-0.373938114449416</v>
       </c>
       <c r="C5">
-        <v>-0.1256542626778632</v>
+        <v>-0.08604383102474134</v>
       </c>
       <c r="D5">
-        <v>-0.8987539392194978</v>
+        <v>-0.894613130713882</v>
       </c>
       <c r="E5">
-        <v>-0.4029271671687493</v>
+        <v>-0.4160316759241603</v>
       </c>
       <c r="F5">
-        <v>-0.4493006347987714</v>
+        <v>-0.4771337672156669</v>
       </c>
       <c r="G5">
-        <v>-0.7574202051519227</v>
+        <v>-0.7361216077596814</v>
       </c>
       <c r="H5">
-        <v>0.1833024701882449</v>
+        <v>0.238504979255562</v>
       </c>
       <c r="I5">
-        <v>0.2431230487161717</v>
+        <v>0.3075436580615683</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,28 +566,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.2768716098713497</v>
+        <v>-0.3213608602464981</v>
       </c>
       <c r="C6">
-        <v>-0.2247707890397209</v>
+        <v>-0.1541401127330855</v>
       </c>
       <c r="D6">
-        <v>-0.9859639093241898</v>
+        <v>-0.9841313810958512</v>
       </c>
       <c r="E6">
-        <v>-0.375275693053864</v>
+        <v>-0.3869773866107287</v>
       </c>
       <c r="F6">
-        <v>-0.4582621336660804</v>
+        <v>-0.4811568504017827</v>
       </c>
       <c r="G6">
-        <v>-0.7771994011764882</v>
+        <v>-0.7648397592831701</v>
       </c>
       <c r="H6">
-        <v>0.1057005647075392</v>
+        <v>0.1833914209534478</v>
       </c>
       <c r="I6">
-        <v>0.1968496344901255</v>
+        <v>0.2763772141063314</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -595,28 +595,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.2608274936714516</v>
+        <v>-0.2960795679688002</v>
       </c>
       <c r="C7">
-        <v>-0.09128432324162976</v>
+        <v>-0.04729683049051798</v>
       </c>
       <c r="D7">
-        <v>-0.947922445983883</v>
+        <v>-0.939953032021872</v>
       </c>
       <c r="E7">
-        <v>-0.5691303634775818</v>
+        <v>-0.5755491965059426</v>
       </c>
       <c r="F7">
-        <v>-0.4676331935322137</v>
+        <v>-0.4817555559754632</v>
       </c>
       <c r="G7">
-        <v>-0.7101515265119636</v>
+        <v>-0.6819307568485603</v>
       </c>
       <c r="H7">
-        <v>0.1477001020627862</v>
+        <v>0.1990296066055867</v>
       </c>
       <c r="I7">
-        <v>0.1888808059076209</v>
+        <v>0.235964627139871</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/ewma_cor.xlsx
+++ b/correlation/data/ewma_cor.xlsx
@@ -450,28 +450,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.6803283504631858</v>
+        <v>-0.6717961057960264</v>
       </c>
       <c r="C2">
-        <v>0.6791860276644395</v>
+        <v>0.7295296095152427</v>
       </c>
       <c r="D2">
-        <v>-0.1900936030825373</v>
+        <v>-0.1863110616072551</v>
       </c>
       <c r="E2">
-        <v>-0.2113307447708551</v>
+        <v>-0.2735716427149556</v>
       </c>
       <c r="F2">
-        <v>-0.52058764650398</v>
+        <v>-0.5793810354338983</v>
       </c>
       <c r="G2">
-        <v>-0.5403497500033141</v>
+        <v>-0.5985206204666714</v>
       </c>
       <c r="H2">
-        <v>0.9698943479901335</v>
+        <v>0.9761746011358801</v>
       </c>
       <c r="I2">
-        <v>0.8207516641695951</v>
+        <v>0.8208774657131945</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -479,28 +479,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.7126442929716179</v>
+        <v>-0.6997080305301482</v>
       </c>
       <c r="C3">
-        <v>0.723321384156048</v>
+        <v>0.7647541401564865</v>
       </c>
       <c r="D3">
-        <v>-0.2951504546482133</v>
+        <v>-0.2761201135133269</v>
       </c>
       <c r="E3">
-        <v>-0.3561072481235958</v>
+        <v>-0.398227905404011</v>
       </c>
       <c r="F3">
-        <v>-0.5875169986414045</v>
+        <v>-0.633841010669385</v>
       </c>
       <c r="G3">
-        <v>-0.5684171697416494</v>
+        <v>-0.6214953258470601</v>
       </c>
       <c r="H3">
-        <v>0.9892874913102085</v>
+        <v>0.9919547216130984</v>
       </c>
       <c r="I3">
-        <v>0.8254421734356495</v>
+        <v>0.8219625603940736</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -508,28 +508,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.8657741835734499</v>
+        <v>-0.8513557640036338</v>
       </c>
       <c r="C4">
-        <v>0.6939924537021366</v>
+        <v>0.7388737170911936</v>
       </c>
       <c r="D4">
-        <v>-0.3740556169766531</v>
+        <v>-0.3573394452501408</v>
       </c>
       <c r="E4">
-        <v>-0.2749798481819001</v>
+        <v>-0.3243688816975585</v>
       </c>
       <c r="F4">
-        <v>-0.8080388400186241</v>
+        <v>-0.8250119068670466</v>
       </c>
       <c r="G4">
-        <v>-0.5975918837173734</v>
+        <v>-0.6426284428325726</v>
       </c>
       <c r="H4">
-        <v>0.8673647051480593</v>
+        <v>0.888644731410719</v>
       </c>
       <c r="I4">
-        <v>0.7398902256985178</v>
+        <v>0.7570349845642331</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -537,28 +537,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-0.373938114449416</v>
+        <v>-0.3797339369272463</v>
       </c>
       <c r="C5">
-        <v>-0.08604383102474134</v>
+        <v>-0.07015633570079162</v>
       </c>
       <c r="D5">
-        <v>-0.894613130713882</v>
+        <v>-0.8896245238382796</v>
       </c>
       <c r="E5">
-        <v>-0.4160316759241603</v>
+        <v>-0.411650090719148</v>
       </c>
       <c r="F5">
-        <v>-0.4771337672156669</v>
+        <v>-0.4606710214216058</v>
       </c>
       <c r="G5">
-        <v>-0.7361216077596814</v>
+        <v>-0.7075980191814865</v>
       </c>
       <c r="H5">
-        <v>0.238504979255562</v>
+        <v>0.2245210327824469</v>
       </c>
       <c r="I5">
-        <v>0.3075436580615683</v>
+        <v>0.2995377194707117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,28 +566,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.3213608602464981</v>
+        <v>-0.3233201640653649</v>
       </c>
       <c r="C6">
-        <v>-0.1541401127330855</v>
+        <v>-0.1502006145348057</v>
       </c>
       <c r="D6">
-        <v>-0.9841313810958512</v>
+        <v>-0.9840091294310186</v>
       </c>
       <c r="E6">
-        <v>-0.3869773866107287</v>
+        <v>-0.3809891412350106</v>
       </c>
       <c r="F6">
-        <v>-0.4811568504017827</v>
+        <v>-0.4809628186777531</v>
       </c>
       <c r="G6">
-        <v>-0.7648397592831701</v>
+        <v>-0.7439519149608301</v>
       </c>
       <c r="H6">
-        <v>0.1833914209534478</v>
+        <v>0.186458067905267</v>
       </c>
       <c r="I6">
-        <v>0.2763772141063314</v>
+        <v>0.2782370714955669</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -595,28 +595,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.2960795679688002</v>
+        <v>-0.3116987991971364</v>
       </c>
       <c r="C7">
-        <v>-0.04729683049051798</v>
+        <v>-0.01957851393863518</v>
       </c>
       <c r="D7">
-        <v>-0.939953032021872</v>
+        <v>-0.9371182034810706</v>
       </c>
       <c r="E7">
-        <v>-0.5755491965059426</v>
+        <v>-0.5776207383445551</v>
       </c>
       <c r="F7">
-        <v>-0.4817555559754632</v>
+        <v>-0.4919627099449367</v>
       </c>
       <c r="G7">
-        <v>-0.6819307568485603</v>
+        <v>-0.6784065596672358</v>
       </c>
       <c r="H7">
-        <v>0.1990296066055867</v>
+        <v>0.2236409787574441</v>
       </c>
       <c r="I7">
-        <v>0.235964627139871</v>
+        <v>0.2506303386899928</v>
       </c>
     </row>
   </sheetData>
